--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -12,38 +12,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Reporte de Compras</t>
   </si>
   <si>
-    <t>COD.</t>
-  </si>
-  <si>
     <t>CODIGO</t>
   </si>
   <si>
-    <t>MARCA</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
     <t>PRODUCTO</t>
   </si>
   <si>
-    <t>ENVASE</t>
-  </si>
-  <si>
-    <t>MEDIDA</t>
-  </si>
-  <si>
     <t>CANTIDAD</t>
   </si>
   <si>
     <t>PRECIO</t>
   </si>
   <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
     <t>DESCUENTO</t>
   </si>
   <si>
@@ -51,6 +39,21 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>analgesico APRONAX en caja en GR</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>0.00</t>
   </si>
 </sst>
 </file>
@@ -141,8 +144,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -162,7 +165,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2134120" cy="952500"/>
+          <a:ext cx="1067060" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -176,14 +179,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:M7"/>
+  <dimension ref="A4:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="true" zoomScale="120"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="10.94921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.95703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.4140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.27734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="16.28125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.21484375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="9.2109375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="4">
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -212,16 +225,30 @@
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="2" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
